--- a/application/views/rpt/GridTpl.xlsx
+++ b/application/views/rpt/GridTpl.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Таблица!$A$1:$A$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Таблица!$A$1:$L$32</definedName>
   </definedNames>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -76,7 +76,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FF3894F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,6 +143,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3894F0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -440,14 +445,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.28515625" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -460,13 +463,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
   </sheetData>
